--- a/doc/alice/教练财务/2018年1月训练营业绩清单 - 副本.xlsx
+++ b/doc/alice/教练财务/2018年1月训练营业绩清单 - 副本.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="大热俱乐部" sheetId="11" r:id="rId1"/>
     <sheet name="AKcross训练营（28）" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'AKcross训练营（28）'!$A$1:$G$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">大热俱乐部!$A$1:$O$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'AKcross训练营（28）'!$A$1:$G$25</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="137">
   <si>
     <t>教练姓名</t>
   </si>
@@ -1314,15 +1314,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+  <numFmts count="2">
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1426,7 +1422,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9" tint="-0.25"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1434,150 +1430,6 @@
       <sz val="9"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1610,8 +1462,14 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1624,194 +1482,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="39">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -2205,255 +1877,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2463,379 +1893,338 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3126,1778 +2515,1777 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor theme="5" tint="0.599993896298105"/>
+    <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I38" sqref="I38:I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="9.73333333333333" customWidth="1"/>
-    <col min="3" max="3" width="16" style="47" customWidth="1"/>
-    <col min="4" max="4" width="25.2666666666667" style="48" customWidth="1"/>
-    <col min="5" max="5" width="5.4" style="49" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="49" customWidth="1"/>
-    <col min="7" max="7" width="56.125" style="49" customWidth="1"/>
-    <col min="8" max="8" width="8.25" customWidth="1"/>
-    <col min="9" max="9" width="8.26666666666667" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="16" style="41" customWidth="1"/>
+    <col min="4" max="4" width="25.25" style="42" customWidth="1"/>
+    <col min="5" max="5" width="5.375" style="43" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="43" customWidth="1"/>
+    <col min="7" max="7" width="56.125" style="43" customWidth="1"/>
+    <col min="8" max="9" width="8.25" customWidth="1"/>
     <col min="10" max="10" width="28.5" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="15.4" customWidth="1"/>
-    <col min="13" max="13" width="11.8666666666667"/>
-    <col min="14" max="14" width="10.4"/>
-    <col min="15" max="15" width="10.4666666666667" customWidth="1"/>
-    <col min="16" max="16" width="10.6" customWidth="1"/>
+    <col min="12" max="12" width="15.375" customWidth="1"/>
+    <col min="13" max="13" width="11.875"/>
+    <col min="14" max="14" width="10.375"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
+    <col min="16" max="16" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="48" customHeight="1" spans="1:15">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="48" customHeight="1">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="88" t="s">
+      <c r="J1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="89"/>
-      <c r="L1" s="90"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="9"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="21.75" customHeight="1" spans="1:10">
-      <c r="A2" s="56" t="s">
+      <c r="K1" s="75"/>
+      <c r="L1" s="76"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A2" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="58">
-        <v>43127.6666666667</v>
-      </c>
-      <c r="D2" s="59" t="s">
+      <c r="C2" s="50">
+        <v>43127.666666666701</v>
+      </c>
+      <c r="D2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="52">
         <v>7</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61" t="s">
+      <c r="F2" s="52"/>
+      <c r="G2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="62">
+      <c r="H2" s="54">
         <v>300</v>
       </c>
-      <c r="I2" s="62">
+      <c r="I2" s="54">
         <v>300</v>
       </c>
-      <c r="J2" s="91"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:10">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65">
-        <v>43120.6666666667</v>
-      </c>
-      <c r="D3" s="66" t="s">
+      <c r="J2" s="77"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A3" s="97"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="57">
+        <v>43120.666666666701</v>
+      </c>
+      <c r="D3" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="59">
         <v>5</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="68" t="s">
+      <c r="F3" s="59"/>
+      <c r="G3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="69">
+      <c r="H3" s="61">
         <v>300</v>
       </c>
-      <c r="I3" s="69">
+      <c r="I3" s="61">
         <v>300</v>
       </c>
-      <c r="J3" s="20"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65">
-        <v>43113.6666666667</v>
-      </c>
-      <c r="D4" s="66" t="s">
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="97"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="57">
+        <v>43113.666666666701</v>
+      </c>
+      <c r="D4" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="59">
         <v>5</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="70" t="s">
+      <c r="F4" s="59"/>
+      <c r="G4" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="69">
+      <c r="H4" s="61">
         <v>300</v>
       </c>
-      <c r="I4" s="69">
+      <c r="I4" s="61">
         <v>300</v>
       </c>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A5" s="63" t="s">
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="65">
-        <v>43127.6666666667</v>
-      </c>
-      <c r="D5" s="66" t="s">
+      <c r="B5" s="102"/>
+      <c r="C5" s="57">
+        <v>43127.666666666701</v>
+      </c>
+      <c r="D5" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="59">
         <v>2</v>
       </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="70" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="69">
+      <c r="H5" s="61">
         <v>300</v>
       </c>
-      <c r="I5" s="69">
+      <c r="I5" s="61">
         <v>300</v>
       </c>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A6" s="63"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="65">
-        <v>43120.6666666667</v>
-      </c>
-      <c r="D6" s="66" t="s">
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A6" s="97"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="57">
+        <v>43120.666666666701</v>
+      </c>
+      <c r="D6" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="59">
         <v>8</v>
       </c>
-      <c r="F6" s="67">
+      <c r="F6" s="59">
         <v>1</v>
       </c>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="69">
+      <c r="H6" s="61">
         <v>300</v>
       </c>
-      <c r="I6" s="69">
+      <c r="I6" s="61">
         <v>300</v>
       </c>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="65">
-        <v>43113.6666666667</v>
-      </c>
-      <c r="D7" s="66" t="s">
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="97"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="57">
+        <v>43113.666666666701</v>
+      </c>
+      <c r="D7" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="59">
         <v>9</v>
       </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="70" t="s">
+      <c r="F7" s="59"/>
+      <c r="G7" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="69">
+      <c r="H7" s="61">
         <v>300</v>
       </c>
-      <c r="I7" s="69">
+      <c r="I7" s="61">
         <v>300</v>
       </c>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="30" customHeight="1" spans="1:10">
-      <c r="A8" s="63" t="s">
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A8" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="65">
-        <v>43105.7916666667</v>
-      </c>
-      <c r="D8" s="66" t="s">
+      <c r="C8" s="57">
+        <v>43105.791666666701</v>
+      </c>
+      <c r="D8" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="64">
         <v>9</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="59">
         <v>1</v>
       </c>
-      <c r="G8" s="68" t="s">
+      <c r="G8" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="69">
+      <c r="H8" s="61">
         <v>0</v>
       </c>
-      <c r="I8" s="69">
+      <c r="I8" s="61">
         <f>100+25*E8</f>
         <v>325</v>
       </c>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="29.65" customHeight="1" spans="1:15">
-      <c r="A9" s="63"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="65">
-        <v>43112.7916666667</v>
-      </c>
-      <c r="D9" s="73" t="s">
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="29.65" customHeight="1">
+      <c r="A9" s="97"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="57">
+        <v>43112.791666666701</v>
+      </c>
+      <c r="D9" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="59">
         <v>11</v>
       </c>
-      <c r="F9" s="67">
+      <c r="F9" s="59">
         <v>2</v>
       </c>
-      <c r="G9" s="74" t="s">
+      <c r="G9" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="75">
+      <c r="H9" s="67">
         <f>100+25*13</f>
         <v>425</v>
       </c>
-      <c r="I9" s="69">
+      <c r="I9" s="61">
         <f>100+30*E9</f>
         <v>430</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="O9" s="26"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:15">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65">
-        <v>43113.3541666667</v>
-      </c>
-      <c r="D10" s="73" t="s">
+      <c r="J9" s="17"/>
+      <c r="O9" s="22"/>
+    </row>
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A10" s="97"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="57">
+        <v>43113.354166666701</v>
+      </c>
+      <c r="D10" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="64">
         <v>2</v>
       </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="68" t="s">
+      <c r="F10" s="59"/>
+      <c r="G10" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="75"/>
-      <c r="I10" s="69">
-        <f t="shared" ref="I9:I23" si="0">100+25*E10</f>
+      <c r="H10" s="67"/>
+      <c r="I10" s="61">
+        <f t="shared" ref="I10:I23" si="0">100+25*E10</f>
         <v>150</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="O10" s="26"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A11" s="63"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="65">
+      <c r="J10" s="17"/>
+      <c r="O10" s="22"/>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="97"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="57">
         <v>43113.4375</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="59">
         <v>3</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="59">
         <v>1</v>
       </c>
-      <c r="G11" s="70" t="s">
+      <c r="G11" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="67">
         <f>100+25*4</f>
         <v>200</v>
       </c>
-      <c r="I11" s="69">
+      <c r="I11" s="61">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A12" s="63"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="65">
-        <v>43113.6048611111</v>
-      </c>
-      <c r="D12" s="73" t="s">
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="97"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="57">
+        <v>43113.604861111096</v>
+      </c>
+      <c r="D12" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="64">
         <v>1</v>
       </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="70" t="s">
+      <c r="F12" s="59"/>
+      <c r="G12" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="75"/>
-      <c r="I12" s="69">
+      <c r="H12" s="67"/>
+      <c r="I12" s="61">
         <v>25</v>
       </c>
-      <c r="J12" s="20"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A13" s="63"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="65">
-        <v>43113.7083333333</v>
-      </c>
-      <c r="D13" s="73" t="s">
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="97"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="57">
+        <v>43113.708333333299</v>
+      </c>
+      <c r="D13" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="64">
         <v>8</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="70" t="s">
+      <c r="F13" s="59"/>
+      <c r="G13" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="75"/>
-      <c r="I13" s="69">
+      <c r="H13" s="67"/>
+      <c r="I13" s="61">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="J13" s="20"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A14" s="63"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65">
-        <v>43114.3472222222</v>
-      </c>
-      <c r="D14" s="73" t="s">
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="97"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="57">
+        <v>43114.347222222197</v>
+      </c>
+      <c r="D14" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="72">
+      <c r="E14" s="64">
         <v>2</v>
       </c>
-      <c r="F14" s="67"/>
-      <c r="G14" s="70" t="s">
+      <c r="F14" s="59"/>
+      <c r="G14" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="75"/>
-      <c r="I14" s="69">
+      <c r="H14" s="67"/>
+      <c r="I14" s="61">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="J14" s="20"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A15" s="63"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65">
-        <v>43114.4166666667</v>
-      </c>
-      <c r="D15" s="73" t="s">
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="97"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="57">
+        <v>43114.416666666701</v>
+      </c>
+      <c r="D15" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="67">
+      <c r="E15" s="59">
         <v>6</v>
       </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="70" t="s">
+      <c r="F15" s="59"/>
+      <c r="G15" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="75">
-        <f t="shared" ref="H11:H27" si="1">100+25*E15</f>
+      <c r="H15" s="67">
+        <f t="shared" ref="H15:H27" si="1">100+25*E15</f>
         <v>250</v>
       </c>
-      <c r="I15" s="69">
+      <c r="I15" s="61">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="J15" s="20"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A16" s="63"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65">
-        <v>43119.7916666667</v>
-      </c>
-      <c r="D16" s="73" t="s">
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="97"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="57">
+        <v>43119.791666666701</v>
+      </c>
+      <c r="D16" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16" s="59">
         <v>7</v>
       </c>
-      <c r="F16" s="67">
+      <c r="F16" s="59">
         <v>1</v>
       </c>
-      <c r="G16" s="70" t="s">
+      <c r="G16" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="75">
+      <c r="H16" s="67">
         <f>100+25*8</f>
         <v>300</v>
       </c>
-      <c r="I16" s="69">
+      <c r="I16" s="61">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A17" s="63"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="65">
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="97"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="57">
         <v>43120.4375</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="67">
+      <c r="E17" s="59">
         <v>5</v>
       </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="70" t="s">
+      <c r="F17" s="59"/>
+      <c r="G17" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="75">
+      <c r="H17" s="67">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="I17" s="69">
+      <c r="I17" s="61">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A18" s="63"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="65">
-        <v>43120.7083333333</v>
-      </c>
-      <c r="D18" s="73" t="s">
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="97"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="57">
+        <v>43120.708333333299</v>
+      </c>
+      <c r="D18" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="64">
         <v>4</v>
       </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="70" t="s">
+      <c r="F18" s="59"/>
+      <c r="G18" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="75"/>
-      <c r="I18" s="69">
+      <c r="H18" s="67"/>
+      <c r="I18" s="61">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A19" s="63"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65">
-        <v>43124.7916666667</v>
-      </c>
-      <c r="D19" s="73" t="s">
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="97"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="57">
+        <v>43124.791666666701</v>
+      </c>
+      <c r="D19" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="59">
         <v>3</v>
       </c>
-      <c r="F19" s="67"/>
-      <c r="G19" s="68" t="s">
+      <c r="F19" s="59"/>
+      <c r="G19" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="75">
+      <c r="H19" s="67">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="I19" s="69">
+      <c r="I19" s="61">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A20" s="63"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="65">
-        <v>43126.7916666667</v>
-      </c>
-      <c r="D20" s="73" t="s">
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="97"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="57">
+        <v>43126.791666666701</v>
+      </c>
+      <c r="D20" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="59">
         <v>5</v>
       </c>
-      <c r="F20" s="67"/>
-      <c r="G20" s="70" t="s">
+      <c r="F20" s="59"/>
+      <c r="G20" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="69">
+      <c r="H20" s="61">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="I20" s="69">
+      <c r="I20" s="61">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A21" s="63"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="65">
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="97"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="57">
         <v>43127.4375</v>
       </c>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="67">
+      <c r="E21" s="59">
         <v>3</v>
       </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="70" t="s">
+      <c r="F21" s="59"/>
+      <c r="G21" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="69">
+      <c r="H21" s="61">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="I21" s="69">
+      <c r="I21" s="61">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A22" s="63" t="s">
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="65">
-        <v>43102.2083333333</v>
-      </c>
-      <c r="D22" s="73" t="s">
+      <c r="C22" s="57">
+        <v>43102.208333333299</v>
+      </c>
+      <c r="D22" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="67">
+      <c r="E22" s="59">
         <v>3</v>
       </c>
-      <c r="F22" s="67">
+      <c r="F22" s="59">
         <v>1</v>
       </c>
-      <c r="G22" s="71" t="s">
+      <c r="G22" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="69">
+      <c r="H22" s="61">
         <f>100+25*4</f>
         <v>200</v>
       </c>
-      <c r="I22" s="69">
+      <c r="I22" s="61">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="29.25" customHeight="1" spans="1:10">
-      <c r="A23" s="63" t="s">
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A23" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="65">
-        <v>43113.3333333333</v>
-      </c>
-      <c r="D23" s="73" t="s">
+      <c r="C23" s="57">
+        <v>43113.333333333299</v>
+      </c>
+      <c r="D23" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="67">
+      <c r="E23" s="59">
         <v>8</v>
       </c>
-      <c r="F23" s="67">
+      <c r="F23" s="59">
         <v>2</v>
       </c>
-      <c r="G23" s="68" t="s">
+      <c r="G23" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="69">
+      <c r="H23" s="61">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="I23" s="69">
+      <c r="I23" s="61">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A24" s="63"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="65">
-        <v>43113.7708333333</v>
-      </c>
-      <c r="D24" s="73" t="s">
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="97"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="57">
+        <v>43113.770833333299</v>
+      </c>
+      <c r="D24" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="67">
+      <c r="E24" s="59">
         <v>3</v>
       </c>
-      <c r="F24" s="67"/>
-      <c r="G24" s="70" t="s">
+      <c r="F24" s="59"/>
+      <c r="G24" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="69">
+      <c r="H24" s="61">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="I24" s="69">
+      <c r="I24" s="61">
         <f t="shared" ref="I24:I27" si="2">100+25*E24</f>
         <v>175</v>
       </c>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A25" s="63"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="65">
-        <v>43120.3333333333</v>
-      </c>
-      <c r="D25" s="73" t="s">
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="97"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="57">
+        <v>43120.333333333299</v>
+      </c>
+      <c r="D25" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="67">
+      <c r="E25" s="59">
         <v>4</v>
       </c>
-      <c r="F25" s="67"/>
-      <c r="G25" s="70" t="s">
+      <c r="F25" s="59"/>
+      <c r="G25" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="69">
+      <c r="H25" s="61">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="I25" s="69">
+      <c r="I25" s="61">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A26" s="63"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="65">
-        <v>43127.7708333333</v>
-      </c>
-      <c r="D26" s="73" t="s">
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="97"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="57">
+        <v>43127.770833333299</v>
+      </c>
+      <c r="D26" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="67">
+      <c r="E26" s="59">
         <v>5</v>
       </c>
-      <c r="F26" s="67"/>
-      <c r="G26" s="70" t="s">
+      <c r="F26" s="59"/>
+      <c r="G26" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="69">
+      <c r="H26" s="61">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="I26" s="69">
+      <c r="I26" s="61">
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A27" s="63"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="65">
-        <v>43128.7708333333</v>
-      </c>
-      <c r="D27" s="73" t="s">
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A27" s="97"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="57">
+        <v>43128.770833333299</v>
+      </c>
+      <c r="D27" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="67">
+      <c r="E27" s="59">
         <v>5</v>
       </c>
-      <c r="F27" s="67"/>
-      <c r="G27" s="70" t="s">
+      <c r="F27" s="59"/>
+      <c r="G27" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="69">
+      <c r="H27" s="61">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="I27" s="69">
+      <c r="I27" s="61">
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A28" s="77" t="s">
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="73" t="s">
+      <c r="C28" s="57"/>
+      <c r="D28" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="67">
+      <c r="E28" s="59">
         <v>1</v>
       </c>
-      <c r="F28" s="67"/>
-      <c r="G28" s="70" t="s">
+      <c r="F28" s="59"/>
+      <c r="G28" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="75"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="92" t="s">
+      <c r="H28" s="67"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="78" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A29" s="79"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="65">
-        <v>43105.0291666667</v>
-      </c>
-      <c r="D29" s="73" t="s">
+    <row r="29" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="99"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="57">
+        <v>43105.029166666704</v>
+      </c>
+      <c r="D29" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="67">
+      <c r="E29" s="59">
         <v>2</v>
       </c>
-      <c r="F29" s="67"/>
-      <c r="G29" s="70" t="s">
+      <c r="F29" s="59"/>
+      <c r="G29" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="75">
+      <c r="H29" s="67">
         <v>177</v>
       </c>
-      <c r="I29" s="69">
+      <c r="I29" s="61">
         <v>213</v>
       </c>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A30" s="79"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="65">
-        <v>43105.7916666667</v>
-      </c>
-      <c r="D30" s="73" t="s">
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="99"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="57">
+        <v>43105.791666666701</v>
+      </c>
+      <c r="D30" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="67">
+      <c r="E30" s="59">
         <v>2</v>
       </c>
-      <c r="F30" s="67"/>
-      <c r="G30" s="70" t="s">
+      <c r="F30" s="59"/>
+      <c r="G30" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="75">
+      <c r="H30" s="67">
         <v>177</v>
       </c>
-      <c r="I30" s="69">
+      <c r="I30" s="61">
         <v>213</v>
       </c>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A31" s="79"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="65">
-        <v>43119.7916666667</v>
-      </c>
-      <c r="D31" s="73" t="s">
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A31" s="99"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="57">
+        <v>43119.791666666701</v>
+      </c>
+      <c r="D31" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="67">
+      <c r="E31" s="59">
         <v>2</v>
       </c>
-      <c r="F31" s="67"/>
-      <c r="G31" s="70" t="s">
+      <c r="F31" s="59"/>
+      <c r="G31" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="H31" s="75">
+      <c r="H31" s="67">
         <v>177</v>
       </c>
-      <c r="I31" s="69">
+      <c r="I31" s="61">
         <v>213</v>
       </c>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A32" s="79"/>
-      <c r="B32" s="64" t="s">
+      <c r="J31" s="17"/>
+    </row>
+    <row r="32" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A32" s="99"/>
+      <c r="B32" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="65">
-        <v>43107.4166666667</v>
-      </c>
-      <c r="D32" s="73" t="s">
+      <c r="C32" s="57">
+        <v>43107.416666666701</v>
+      </c>
+      <c r="D32" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="72">
+      <c r="E32" s="64">
         <v>4</v>
       </c>
-      <c r="F32" s="67"/>
-      <c r="G32" s="70" t="s">
+      <c r="F32" s="59"/>
+      <c r="G32" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H32" s="75">
+      <c r="H32" s="67">
         <v>100</v>
       </c>
-      <c r="I32" s="69">
+      <c r="I32" s="61">
         <f>100+25*E32</f>
         <v>200</v>
       </c>
-      <c r="J32" s="20" t="s">
+      <c r="J32" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A33" s="79"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="65">
-        <v>43107.7083333333</v>
-      </c>
-      <c r="D33" s="73" t="s">
+    <row r="33" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="99"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="57">
+        <v>43107.708333333299</v>
+      </c>
+      <c r="D33" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="72">
+      <c r="E33" s="64">
         <v>7</v>
       </c>
-      <c r="F33" s="67"/>
-      <c r="G33" s="70" t="s">
+      <c r="F33" s="59"/>
+      <c r="G33" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="75">
+      <c r="H33" s="67">
         <f>7*25</f>
         <v>175</v>
       </c>
-      <c r="I33" s="69">
+      <c r="I33" s="61">
         <f>100+25*E33</f>
         <v>275</v>
       </c>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A34" s="79"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="65">
-        <v>43113.6458333333</v>
-      </c>
-      <c r="D34" s="73" t="s">
+      <c r="J33" s="17"/>
+    </row>
+    <row r="34" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A34" s="99"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="57">
+        <v>43113.645833333299</v>
+      </c>
+      <c r="D34" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="67">
+      <c r="E34" s="59">
         <v>5</v>
       </c>
-      <c r="F34" s="67">
+      <c r="F34" s="59">
         <v>1</v>
       </c>
-      <c r="G34" s="70" t="s">
+      <c r="G34" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="H34" s="75">
+      <c r="H34" s="67">
         <f>100+25*6</f>
         <v>250</v>
       </c>
-      <c r="I34" s="69">
+      <c r="I34" s="61">
         <f>100+25*E34</f>
         <v>225</v>
       </c>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A35" s="79"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="65">
+      <c r="J34" s="17"/>
+    </row>
+    <row r="35" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A35" s="99"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="57">
         <v>43114.0715277778</v>
       </c>
-      <c r="D35" s="73" t="s">
+      <c r="D35" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="67">
+      <c r="E35" s="59">
         <v>4</v>
       </c>
-      <c r="F35" s="67"/>
-      <c r="G35" s="70" t="s">
+      <c r="F35" s="59"/>
+      <c r="G35" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="75">
+      <c r="H35" s="67">
         <f>100+25*E35</f>
         <v>200</v>
       </c>
-      <c r="I35" s="69">
+      <c r="I35" s="61">
         <f>100+25*E35</f>
         <v>200</v>
       </c>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A36" s="79"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="65">
-        <v>43114.3333333333</v>
-      </c>
-      <c r="D36" s="73" t="s">
+      <c r="J35" s="17"/>
+    </row>
+    <row r="36" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A36" s="99"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="57">
+        <v>43114.333333333299</v>
+      </c>
+      <c r="D36" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="72">
+      <c r="E36" s="64">
         <v>5</v>
       </c>
-      <c r="F36" s="67"/>
-      <c r="G36" s="70" t="s">
+      <c r="F36" s="59"/>
+      <c r="G36" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="H36" s="75">
+      <c r="H36" s="67">
         <v>125</v>
       </c>
-      <c r="I36" s="69">
+      <c r="I36" s="61">
         <f>100+25*E36</f>
         <v>225</v>
       </c>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A37" s="79"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="75">
+      <c r="J36" s="17"/>
+    </row>
+    <row r="37" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A37" s="99"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="67">
         <v>125</v>
       </c>
-      <c r="I37" s="69"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A38" s="79"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="65">
-        <v>43120.6458333333</v>
-      </c>
-      <c r="D38" s="73" t="s">
+      <c r="I37" s="61"/>
+      <c r="J37" s="17"/>
+    </row>
+    <row r="38" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A38" s="99"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="57">
+        <v>43120.645833333299</v>
+      </c>
+      <c r="D38" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="67">
+      <c r="E38" s="59">
         <v>4</v>
       </c>
-      <c r="F38" s="67"/>
-      <c r="G38" s="70" t="s">
+      <c r="F38" s="59"/>
+      <c r="G38" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="H38" s="75">
+      <c r="H38" s="67">
         <f>100+25*E38</f>
         <v>200</v>
       </c>
-      <c r="I38" s="69">
-        <f t="shared" ref="I38:I50" si="3">100+25*E38</f>
+      <c r="I38" s="61">
+        <f t="shared" ref="I38:I49" si="3">100+25*E38</f>
         <v>200</v>
       </c>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A39" s="79"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="65">
-        <v>43121.3333333333</v>
-      </c>
-      <c r="D39" s="73" t="s">
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A39" s="99"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="57">
+        <v>43121.333333333299</v>
+      </c>
+      <c r="D39" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="67">
+      <c r="E39" s="59">
         <v>2</v>
       </c>
-      <c r="F39" s="67"/>
-      <c r="G39" s="70" t="s">
+      <c r="F39" s="59"/>
+      <c r="G39" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="H39" s="75">
+      <c r="H39" s="67">
         <f>100+25*E39</f>
         <v>150</v>
       </c>
-      <c r="I39" s="69">
+      <c r="I39" s="61">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A40" s="79"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="65">
-        <v>43121.7083333333</v>
-      </c>
-      <c r="D40" s="73" t="s">
+      <c r="J39" s="17"/>
+    </row>
+    <row r="40" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A40" s="99"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="57">
+        <v>43121.708333333299</v>
+      </c>
+      <c r="D40" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="E40" s="67">
+      <c r="E40" s="59">
         <v>5</v>
       </c>
-      <c r="F40" s="67"/>
-      <c r="G40" s="70" t="s">
+      <c r="F40" s="59"/>
+      <c r="G40" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="H40" s="75">
+      <c r="H40" s="67">
         <f>100+25*E40</f>
         <v>225</v>
       </c>
-      <c r="I40" s="69">
+      <c r="I40" s="61">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A41" s="79"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="65">
+      <c r="J40" s="17"/>
+    </row>
+    <row r="41" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A41" s="99"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="57">
         <v>43124.375</v>
       </c>
-      <c r="D41" s="73" t="s">
+      <c r="D41" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="72">
+      <c r="E41" s="64">
         <v>2</v>
       </c>
-      <c r="F41" s="67">
+      <c r="F41" s="59">
         <v>1</v>
       </c>
-      <c r="G41" s="70" t="s">
+      <c r="G41" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="H41" s="75">
+      <c r="H41" s="67">
         <v>75</v>
       </c>
-      <c r="I41" s="69">
+      <c r="I41" s="61">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A42" s="79"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="65">
-        <v>43124.7083333333</v>
-      </c>
-      <c r="D42" s="73" t="s">
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A42" s="99"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="57">
+        <v>43124.708333333299</v>
+      </c>
+      <c r="D42" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="72">
+      <c r="E42" s="64">
         <v>2</v>
       </c>
-      <c r="F42" s="67"/>
-      <c r="G42" s="70" t="s">
+      <c r="F42" s="59"/>
+      <c r="G42" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="H42" s="75">
+      <c r="H42" s="67">
         <v>25</v>
       </c>
-      <c r="I42" s="69">
+      <c r="I42" s="61">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A43" s="79"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="65">
+      <c r="J42" s="17"/>
+    </row>
+    <row r="43" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A43" s="99"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="57">
         <v>43125.375</v>
       </c>
-      <c r="D43" s="73" t="s">
+      <c r="D43" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="67">
+      <c r="E43" s="59">
         <v>4</v>
       </c>
-      <c r="F43" s="67"/>
-      <c r="G43" s="70" t="s">
+      <c r="F43" s="59"/>
+      <c r="G43" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="H43" s="75">
+      <c r="H43" s="67">
         <f>100+25*E43</f>
         <v>200</v>
       </c>
-      <c r="I43" s="69">
+      <c r="I43" s="61">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A44" s="79"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="65">
-        <v>43125.7083333333</v>
-      </c>
-      <c r="D44" s="73" t="s">
+      <c r="J43" s="17"/>
+    </row>
+    <row r="44" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A44" s="99"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="57">
+        <v>43125.708333333299</v>
+      </c>
+      <c r="D44" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="72">
+      <c r="E44" s="64">
         <v>4</v>
       </c>
-      <c r="F44" s="67"/>
-      <c r="G44" s="70" t="s">
+      <c r="F44" s="59"/>
+      <c r="G44" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H44" s="75">
+      <c r="H44" s="67">
         <v>100</v>
       </c>
-      <c r="I44" s="69">
+      <c r="I44" s="61">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A45" s="79"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="65">
-        <v>43126.6326388889</v>
-      </c>
-      <c r="D45" s="73" t="s">
+      <c r="J44" s="17"/>
+    </row>
+    <row r="45" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A45" s="99"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="57">
+        <v>43126.632638888899</v>
+      </c>
+      <c r="D45" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="72">
+      <c r="E45" s="64">
         <v>4</v>
       </c>
-      <c r="F45" s="67">
+      <c r="F45" s="59">
         <v>1</v>
       </c>
-      <c r="G45" s="70" t="s">
+      <c r="G45" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="H45" s="75">
+      <c r="H45" s="67">
         <f>5*25</f>
         <v>125</v>
       </c>
-      <c r="I45" s="69">
+      <c r="I45" s="61">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A46" s="79"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="65">
+      <c r="J45" s="17"/>
+    </row>
+    <row r="46" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A46" s="99"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="57">
         <v>43127.375</v>
       </c>
-      <c r="D46" s="73" t="s">
+      <c r="D46" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="E46" s="67">
+      <c r="E46" s="59">
         <v>3</v>
       </c>
-      <c r="F46" s="67"/>
-      <c r="G46" s="70" t="s">
+      <c r="F46" s="59"/>
+      <c r="G46" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="H46" s="75">
+      <c r="H46" s="67">
         <f>100+25*E46</f>
         <v>175</v>
       </c>
-      <c r="I46" s="69">
+      <c r="I46" s="61">
         <f t="shared" si="3"/>
         <v>175</v>
       </c>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A47" s="79"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="65">
-        <v>43127.7083333333</v>
-      </c>
-      <c r="D47" s="73" t="s">
+      <c r="J46" s="17"/>
+    </row>
+    <row r="47" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A47" s="99"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="57">
+        <v>43127.708333333299</v>
+      </c>
+      <c r="D47" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="72">
+      <c r="E47" s="64">
         <v>6</v>
       </c>
-      <c r="F47" s="67"/>
-      <c r="G47" s="70" t="s">
+      <c r="F47" s="59"/>
+      <c r="G47" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="H47" s="75">
+      <c r="H47" s="67">
         <f>25*6</f>
         <v>150</v>
       </c>
-      <c r="I47" s="69">
+      <c r="I47" s="61">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A48" s="79"/>
-      <c r="B48" s="64"/>
-      <c r="C48" s="65">
-        <v>43128.7083333333</v>
-      </c>
-      <c r="D48" s="73" t="s">
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A48" s="99"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="57">
+        <v>43128.708333333299</v>
+      </c>
+      <c r="D48" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="E48" s="72">
+      <c r="E48" s="64">
         <v>3</v>
       </c>
-      <c r="F48" s="67"/>
-      <c r="G48" s="70" t="s">
+      <c r="F48" s="59"/>
+      <c r="G48" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="H48" s="69">
+      <c r="H48" s="61">
         <v>75</v>
       </c>
-      <c r="I48" s="69">
+      <c r="I48" s="61">
         <f t="shared" si="3"/>
         <v>175</v>
       </c>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A49" s="79"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="65">
+      <c r="J48" s="17"/>
+    </row>
+    <row r="49" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A49" s="99"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="57">
         <v>43129.375</v>
       </c>
-      <c r="D49" s="73" t="s">
+      <c r="D49" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="72">
+      <c r="E49" s="64">
         <v>3</v>
       </c>
-      <c r="F49" s="67"/>
-      <c r="G49" s="70" t="s">
+      <c r="F49" s="59"/>
+      <c r="G49" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="H49" s="69">
+      <c r="H49" s="61">
         <v>75</v>
       </c>
-      <c r="I49" s="69">
+      <c r="I49" s="61">
         <f t="shared" si="3"/>
         <v>175</v>
       </c>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A50" s="82"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="65">
-        <v>43129.7083333333</v>
-      </c>
-      <c r="D50" s="66" t="s">
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A50" s="100"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="57">
+        <v>43129.708333333299</v>
+      </c>
+      <c r="D50" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="E50" s="72">
+      <c r="E50" s="64">
         <v>2</v>
       </c>
-      <c r="F50" s="67"/>
-      <c r="G50" s="70" t="s">
+      <c r="F50" s="59"/>
+      <c r="G50" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="H50" s="69">
+      <c r="H50" s="61">
         <v>75</v>
       </c>
-      <c r="I50" s="69">
+      <c r="I50" s="61">
         <v>175</v>
       </c>
-      <c r="J50" s="92" t="s">
+      <c r="J50" s="78" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A51" s="63" t="s">
+    <row r="51" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A51" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="65">
-        <v>43105.7076388889</v>
-      </c>
-      <c r="D51" s="73" t="s">
+      <c r="C51" s="57">
+        <v>43105.707638888904</v>
+      </c>
+      <c r="D51" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="E51" s="72">
+      <c r="E51" s="64">
         <v>1</v>
       </c>
-      <c r="F51" s="67">
+      <c r="F51" s="59">
         <v>1</v>
       </c>
-      <c r="G51" s="71" t="s">
+      <c r="G51" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="H51" s="75">
+      <c r="H51" s="67">
         <v>25</v>
       </c>
-      <c r="I51" s="69">
+      <c r="I51" s="61">
         <v>25</v>
       </c>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A52" s="63"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="65">
-        <v>43105.8333333333</v>
-      </c>
-      <c r="D52" s="73" t="s">
+      <c r="J51" s="17"/>
+    </row>
+    <row r="52" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A52" s="97"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="57">
+        <v>43105.833333333299</v>
+      </c>
+      <c r="D52" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="E52" s="67">
+      <c r="E52" s="59">
         <v>2</v>
       </c>
-      <c r="F52" s="67">
+      <c r="F52" s="59">
         <v>1</v>
       </c>
-      <c r="G52" s="70" t="s">
+      <c r="G52" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="H52" s="75">
+      <c r="H52" s="67">
         <f>100+25*3</f>
         <v>175</v>
       </c>
-      <c r="I52" s="69">
+      <c r="I52" s="61">
         <f>100+25*3</f>
         <v>175</v>
       </c>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A53" s="63"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="65">
-        <v>43112.70625</v>
-      </c>
-      <c r="D53" s="73" t="s">
+      <c r="J52" s="17"/>
+    </row>
+    <row r="53" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A53" s="97"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="57">
+        <v>43112.706250000003</v>
+      </c>
+      <c r="D53" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="E53" s="72">
+      <c r="E53" s="64">
         <v>2</v>
       </c>
-      <c r="F53" s="67"/>
-      <c r="G53" s="70" t="s">
+      <c r="F53" s="59"/>
+      <c r="G53" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="H53" s="75">
+      <c r="H53" s="67">
         <v>50</v>
       </c>
-      <c r="I53" s="69">
+      <c r="I53" s="61">
         <v>50</v>
       </c>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A54" s="63"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="65">
-        <v>43112.8333333333</v>
-      </c>
-      <c r="D54" s="73" t="s">
+      <c r="J53" s="17"/>
+    </row>
+    <row r="54" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A54" s="97"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="57">
+        <v>43112.833333333299</v>
+      </c>
+      <c r="D54" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="E54" s="73">
+      <c r="E54" s="65">
         <v>2</v>
       </c>
-      <c r="F54" s="67"/>
-      <c r="G54" s="70" t="s">
+      <c r="F54" s="59"/>
+      <c r="G54" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="H54" s="75">
+      <c r="H54" s="67">
         <f>100+25*E54</f>
         <v>150</v>
       </c>
-      <c r="I54" s="69">
-        <f t="shared" ref="I52:I63" si="4">100+25*E54</f>
+      <c r="I54" s="61">
+        <f t="shared" ref="I54:I63" si="4">100+25*E54</f>
         <v>150</v>
       </c>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A55" s="63"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="65">
-        <v>43113.3333333333</v>
-      </c>
-      <c r="D55" s="73" t="s">
+      <c r="J54" s="17"/>
+    </row>
+    <row r="55" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A55" s="97"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="57">
+        <v>43113.333333333299</v>
+      </c>
+      <c r="D55" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="E55" s="67">
+      <c r="E55" s="59">
         <v>6</v>
       </c>
-      <c r="F55" s="67">
+      <c r="F55" s="59">
         <v>1</v>
       </c>
-      <c r="G55" s="70" t="s">
+      <c r="G55" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="H55" s="75">
+      <c r="H55" s="67">
         <f>100+25*7</f>
         <v>275</v>
       </c>
-      <c r="I55" s="69">
+      <c r="I55" s="61">
         <f>100+25*7</f>
         <v>275</v>
       </c>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A56" s="63"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="65">
-        <v>43114.3333333333</v>
-      </c>
-      <c r="D56" s="73" t="s">
+      <c r="J55" s="17"/>
+    </row>
+    <row r="56" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A56" s="97"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="57">
+        <v>43114.333333333299</v>
+      </c>
+      <c r="D56" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="E56" s="67">
+      <c r="E56" s="59">
         <v>2</v>
       </c>
-      <c r="F56" s="67"/>
-      <c r="G56" s="70" t="s">
+      <c r="F56" s="59"/>
+      <c r="G56" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="H56" s="75">
+      <c r="H56" s="67">
         <f>100+25*E56</f>
         <v>150</v>
       </c>
-      <c r="I56" s="69">
+      <c r="I56" s="61">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A57" s="63"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="65">
-        <v>43114.5993055556</v>
-      </c>
-      <c r="D57" s="73" t="s">
+      <c r="J56" s="17"/>
+    </row>
+    <row r="57" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A57" s="97"/>
+      <c r="B57" s="102"/>
+      <c r="C57" s="57">
+        <v>43114.599305555603</v>
+      </c>
+      <c r="D57" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="E57" s="72">
+      <c r="E57" s="64">
         <v>1</v>
       </c>
-      <c r="F57" s="67"/>
-      <c r="G57" s="70" t="s">
+      <c r="F57" s="59"/>
+      <c r="G57" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="H57" s="75">
+      <c r="H57" s="67">
         <v>25</v>
       </c>
-      <c r="I57" s="69">
+      <c r="I57" s="61">
         <v>25</v>
       </c>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A58" s="63"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="65">
-        <v>43119.8333333333</v>
-      </c>
-      <c r="D58" s="73" t="s">
+      <c r="J57" s="17"/>
+    </row>
+    <row r="58" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A58" s="97"/>
+      <c r="B58" s="102"/>
+      <c r="C58" s="57">
+        <v>43119.833333333299</v>
+      </c>
+      <c r="D58" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="E58" s="73">
+      <c r="E58" s="65">
         <v>4</v>
       </c>
-      <c r="F58" s="67"/>
-      <c r="G58" s="70" t="s">
+      <c r="F58" s="59"/>
+      <c r="G58" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="H58" s="75">
+      <c r="H58" s="67">
         <f>100+25*4</f>
         <v>200</v>
       </c>
-      <c r="I58" s="69">
+      <c r="I58" s="61">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A59" s="63"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="65">
+      <c r="J58" s="17"/>
+    </row>
+    <row r="59" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A59" s="97"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="57">
         <v>43124.34375</v>
       </c>
-      <c r="D59" s="73" t="s">
+      <c r="D59" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="E59" s="72">
+      <c r="E59" s="64">
         <v>2</v>
       </c>
-      <c r="F59" s="67">
+      <c r="F59" s="59">
         <v>2</v>
       </c>
-      <c r="G59" s="70" t="s">
+      <c r="G59" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="H59" s="75">
+      <c r="H59" s="67">
         <v>100</v>
       </c>
-      <c r="I59" s="69">
+      <c r="I59" s="61">
         <f>100+25*4</f>
         <v>200</v>
       </c>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A60" s="63"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="65">
+      <c r="J59" s="17"/>
+    </row>
+    <row r="60" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A60" s="97"/>
+      <c r="B60" s="102"/>
+      <c r="C60" s="57">
         <v>43124.4375</v>
       </c>
-      <c r="D60" s="73" t="s">
+      <c r="D60" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="E60" s="67">
+      <c r="E60" s="59">
         <v>2</v>
       </c>
-      <c r="F60" s="67">
+      <c r="F60" s="59">
         <v>1</v>
       </c>
-      <c r="G60" s="70" t="s">
+      <c r="G60" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="H60" s="75">
+      <c r="H60" s="67">
         <f>100+25*3</f>
         <v>175</v>
       </c>
-      <c r="I60" s="69">
+      <c r="I60" s="61">
         <f>100+25*3</f>
         <v>175</v>
       </c>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A61" s="63"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="65">
-        <v>43126.6041666667</v>
-      </c>
-      <c r="D61" s="73" t="s">
+      <c r="J60" s="17"/>
+    </row>
+    <row r="61" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A61" s="97"/>
+      <c r="B61" s="102"/>
+      <c r="C61" s="57">
+        <v>43126.604166666701</v>
+      </c>
+      <c r="D61" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="E61" s="72">
+      <c r="E61" s="64">
         <v>3</v>
       </c>
-      <c r="F61" s="67"/>
-      <c r="G61" s="70" t="s">
+      <c r="F61" s="59"/>
+      <c r="G61" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="H61" s="69">
+      <c r="H61" s="61">
         <v>75</v>
       </c>
-      <c r="I61" s="69">
+      <c r="I61" s="61">
         <f t="shared" si="4"/>
         <v>175</v>
       </c>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A62" s="63"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="65">
+      <c r="J61" s="17"/>
+    </row>
+    <row r="62" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A62" s="97"/>
+      <c r="B62" s="102"/>
+      <c r="C62" s="57">
         <v>43128.4375</v>
       </c>
-      <c r="D62" s="73" t="s">
+      <c r="D62" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="E62" s="72">
+      <c r="E62" s="64">
         <v>5</v>
       </c>
-      <c r="F62" s="67"/>
-      <c r="G62" s="70" t="s">
+      <c r="F62" s="59"/>
+      <c r="G62" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="H62" s="69">
+      <c r="H62" s="61">
         <v>125</v>
       </c>
-      <c r="I62" s="69">
+      <c r="I62" s="61">
         <f t="shared" si="4"/>
         <v>225</v>
       </c>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A63" s="77"/>
-      <c r="B63" s="78"/>
-      <c r="C63" s="83">
+      <c r="J62" s="17"/>
+    </row>
+    <row r="63" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A63" s="98"/>
+      <c r="B63" s="103"/>
+      <c r="C63" s="69">
         <v>43129.34375</v>
       </c>
-      <c r="D63" s="84" t="s">
+      <c r="D63" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="E63" s="85">
+      <c r="E63" s="71">
         <v>3</v>
       </c>
-      <c r="F63" s="85"/>
-      <c r="G63" s="86" t="s">
+      <c r="F63" s="71"/>
+      <c r="G63" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="H63" s="87">
+      <c r="H63" s="73">
         <f>100+25*E63</f>
         <v>175</v>
       </c>
-      <c r="I63" s="87">
+      <c r="I63" s="73">
         <f t="shared" si="4"/>
         <v>175</v>
       </c>
-      <c r="J63" s="32"/>
-    </row>
-    <row r="64" s="1" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A64" s="18"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="67">
+      <c r="J63" s="28"/>
+    </row>
+    <row r="64" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A64" s="15"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="59">
         <v>4</v>
       </c>
-      <c r="F64" s="67">
+      <c r="F64" s="59">
         <v>1</v>
       </c>
-      <c r="G64" s="70" t="s">
+      <c r="G64" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="H64" s="69"/>
-      <c r="I64" s="69"/>
-      <c r="J64" s="19"/>
-    </row>
-    <row r="65" s="1" customFormat="1" ht="17.25" spans="1:11">
-      <c r="A65" s="93" t="s">
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="16"/>
+    </row>
+    <row r="65" spans="1:11" s="1" customFormat="1" ht="16.5">
+      <c r="A65" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="B65" s="94"/>
-      <c r="C65" s="95"/>
-      <c r="D65" s="96"/>
-      <c r="E65" s="97">
+      <c r="B65" s="93"/>
+      <c r="C65" s="94"/>
+      <c r="D65" s="95"/>
+      <c r="E65" s="79">
         <f>SUM(E2:E64)</f>
         <v>248</v>
       </c>
-      <c r="F65" s="97">
+      <c r="F65" s="79">
         <f>SUM(F2:F64)</f>
         <v>19</v>
       </c>
-      <c r="G65" s="98"/>
-      <c r="H65" s="99">
+      <c r="G65" s="80"/>
+      <c r="H65" s="81">
         <f>SUM(H2:H64)</f>
         <v>9956</v>
       </c>
-      <c r="I65" s="99">
+      <c r="I65" s="81">
         <f>SUM(I2:I64)</f>
         <v>12369</v>
       </c>
-      <c r="J65" s="108"/>
-      <c r="K65" s="109"/>
-    </row>
-    <row r="66" s="2" customFormat="1" ht="21" customHeight="1" spans="3:7">
-      <c r="C66" s="100"/>
-      <c r="D66" s="101"/>
-      <c r="E66" s="102"/>
-      <c r="F66" s="102"/>
-      <c r="G66" s="102"/>
-    </row>
-    <row r="67" s="2" customFormat="1" ht="16.5" spans="3:7">
-      <c r="C67" s="100"/>
-      <c r="D67" s="101"/>
-      <c r="E67" s="102"/>
-      <c r="F67" s="102"/>
-      <c r="G67" s="103"/>
-    </row>
-    <row r="68" ht="16.5" spans="7:10">
-      <c r="G68" s="104"/>
-      <c r="J68" s="40"/>
-    </row>
-    <row r="69" ht="16.5" spans="7:10">
-      <c r="G69" s="105"/>
-      <c r="J69" s="40"/>
-    </row>
-    <row r="70" ht="16.5" spans="7:10">
-      <c r="G70" s="106"/>
-      <c r="J70" s="40"/>
-    </row>
-    <row r="71" ht="16.5" spans="7:10">
-      <c r="G71" s="107"/>
-      <c r="J71" s="44"/>
-    </row>
-    <row r="72" ht="16.5" spans="7:10">
-      <c r="G72" s="107"/>
-      <c r="J72" s="40"/>
-    </row>
-    <row r="73" ht="16.5" spans="10:10">
-      <c r="J73" s="40"/>
-    </row>
-    <row r="74" ht="16.5" spans="10:10">
-      <c r="J74" s="40"/>
-    </row>
-    <row r="75" ht="16.5" spans="10:10">
-      <c r="J75" s="40"/>
-    </row>
-    <row r="76" ht="16.5" spans="10:10">
-      <c r="J76" s="40"/>
-    </row>
-    <row r="77" ht="18" spans="10:10">
-      <c r="J77" s="45"/>
-    </row>
-    <row r="78" spans="10:10">
-      <c r="J78" s="46"/>
+      <c r="J65" s="90"/>
+      <c r="K65" s="91"/>
+    </row>
+    <row r="66" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="C66" s="82"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="84"/>
+      <c r="G66" s="84"/>
+    </row>
+    <row r="67" spans="1:11" s="2" customFormat="1" ht="16.5">
+      <c r="C67" s="82"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="84"/>
+      <c r="F67" s="84"/>
+      <c r="G67" s="85"/>
+    </row>
+    <row r="68" spans="1:11" ht="16.5">
+      <c r="G68" s="86"/>
+      <c r="J68" s="34"/>
+    </row>
+    <row r="69" spans="1:11" ht="16.5">
+      <c r="G69" s="87"/>
+      <c r="J69" s="34"/>
+    </row>
+    <row r="70" spans="1:11" ht="16.5">
+      <c r="G70" s="88"/>
+      <c r="J70" s="34"/>
+    </row>
+    <row r="71" spans="1:11" ht="16.5">
+      <c r="G71" s="89"/>
+      <c r="J71" s="38"/>
+    </row>
+    <row r="72" spans="1:11" ht="16.5">
+      <c r="G72" s="89"/>
+      <c r="J72" s="34"/>
+    </row>
+    <row r="73" spans="1:11" ht="16.5">
+      <c r="J73" s="34"/>
+    </row>
+    <row r="74" spans="1:11" ht="16.5">
+      <c r="J74" s="34"/>
+    </row>
+    <row r="75" spans="1:11" ht="16.5">
+      <c r="J75" s="34"/>
+    </row>
+    <row r="76" spans="1:11" ht="16.5">
+      <c r="J76" s="34"/>
+    </row>
+    <row r="77" spans="1:11" ht="18">
+      <c r="J77" s="39"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="J78" s="40"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O65">
@@ -4918,15 +4306,15 @@
     <mergeCell ref="B32:B50"/>
     <mergeCell ref="B51:B63"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor theme="5" tint="0.599993896298105"/>
+    <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
@@ -4934,450 +4322,450 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.86666666666667" customWidth="1"/>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="20.2666666666667" customWidth="1"/>
-    <col min="4" max="4" width="5.4" customWidth="1"/>
-    <col min="5" max="5" width="5.6" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="5.375" customWidth="1"/>
+    <col min="5" max="5" width="5.625" customWidth="1"/>
     <col min="6" max="6" width="58.875" customWidth="1"/>
-    <col min="7" max="7" width="17.4666666666667" customWidth="1"/>
-    <col min="8" max="8" width="10.4666666666667" customWidth="1"/>
-    <col min="9" max="9" width="10.6" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1">
+      <c r="A1" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="48" customHeight="1" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="48" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="10" t="s">
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="11">
-        <v>43103.7291666667</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="8">
+        <v>43103.729166666701</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>5</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>0</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
-      <c r="A4" s="10"/>
-      <c r="B4" s="16" t="s">
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="110"/>
+      <c r="B4" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="15">
         <v>10</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="15">
         <v>0</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="20"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="10"/>
-      <c r="B5" s="16">
-        <v>43112.7291666667</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="110"/>
+      <c r="B5" s="13">
+        <v>43112.729166666701</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="15">
         <v>6</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="15">
         <v>0</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A6" s="10"/>
-      <c r="B6" s="16">
-        <v>43117.7125</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="110"/>
+      <c r="B6" s="13">
+        <v>43117.712500000001</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="15">
         <v>5</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="15">
         <v>0</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="10"/>
-      <c r="B7" s="16">
-        <v>43119.7083333333</v>
-      </c>
-      <c r="C7" s="17" t="s">
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="110"/>
+      <c r="B7" s="13">
+        <v>43119.708333333299</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="15">
         <v>6</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="15">
         <v>0</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A8" s="10"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18">
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="110"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15">
         <v>3</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="22" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="19.05" customHeight="1" spans="1:8">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="A9" s="111" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="16">
-        <v>43104.6805555556</v>
-      </c>
-      <c r="C9" s="25" t="s">
+      <c r="B9" s="13">
+        <v>43104.680555555598</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="15">
         <v>7</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="15">
         <v>1</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="26"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A10" s="10"/>
-      <c r="B10" s="16">
+      <c r="G9" s="17"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="110"/>
+      <c r="B10" s="13">
         <v>43111.625</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="15">
         <v>7</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="15">
         <v>0</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A11" s="10"/>
-      <c r="B11" s="16">
-        <v>43113.5597222222</v>
-      </c>
-      <c r="C11" s="25" t="s">
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="110"/>
+      <c r="B11" s="13">
+        <v>43113.559722222199</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="15">
         <v>7</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="15">
         <v>0</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A12" s="10"/>
-      <c r="B12" s="16">
-        <v>43125.3333333333</v>
-      </c>
-      <c r="C12" s="25" t="s">
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="110"/>
+      <c r="B12" s="13">
+        <v>43125.333333333299</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="15">
         <v>6</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="15">
         <v>0</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A13" s="10"/>
-      <c r="B13" s="16">
-        <v>43127.3333333333</v>
-      </c>
-      <c r="C13" s="25" t="s">
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="110"/>
+      <c r="B13" s="13">
+        <v>43127.333333333299</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="15">
         <v>5</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="15">
         <v>0</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A14" s="24" t="s">
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="16">
-        <v>43107.5833333333</v>
-      </c>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="13">
+        <v>43107.583333333299</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="15">
         <v>6</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="15">
         <v>0</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A15" s="10"/>
-      <c r="B15" s="16">
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="110"/>
+      <c r="B15" s="13">
         <v>43114.4375</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="15">
         <v>3</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="15">
         <v>0</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A16" s="10"/>
-      <c r="B16" s="16">
-        <v>43114.5833333333</v>
-      </c>
-      <c r="C16" s="25" t="s">
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A16" s="110"/>
+      <c r="B16" s="13">
+        <v>43114.583333333299</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="15">
         <v>9</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="15">
         <v>0</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A17" s="10"/>
-      <c r="B17" s="16">
-        <v>43121.5833333333</v>
-      </c>
-      <c r="C17" s="25" t="s">
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="110"/>
+      <c r="B17" s="13">
+        <v>43121.583333333299</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="15">
         <v>7</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="15">
         <v>0</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A18" s="10"/>
-      <c r="B18" s="16">
-        <v>43125.4166666667</v>
-      </c>
-      <c r="C18" s="25" t="s">
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="110"/>
+      <c r="B18" s="13">
+        <v>43125.416666666701</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="15">
         <v>4</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="15">
         <v>0</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A19" s="10"/>
-      <c r="B19" s="28">
-        <v>43127.4166666667</v>
-      </c>
-      <c r="C19" s="29" t="s">
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="110"/>
+      <c r="B19" s="24">
+        <v>43127.416666666701</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="26">
         <v>2</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="26">
         <v>0</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="G19" s="32"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="17.25" spans="1:7">
-      <c r="A20" s="33" t="s">
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="16.5">
+      <c r="A20" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="6">
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="4">
         <f>SUM(D3:D19)</f>
         <v>98</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="4">
         <f>SUM(E3:E19)</f>
         <v>1</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="21" customHeight="1" spans="6:6">
-      <c r="F21" s="37" t="s">
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="F21" s="31" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="16.5" spans="6:6">
-      <c r="F22" s="38" t="s">
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="16.5">
+      <c r="F22" s="32" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="6:7">
-      <c r="F23" s="39" t="s">
+    <row r="23" spans="1:7" ht="16.5">
+      <c r="F23" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="G23" s="40"/>
-    </row>
-    <row r="24" ht="16.5" spans="6:7">
-      <c r="F24" s="41" t="s">
+      <c r="G23" s="34"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.5">
+      <c r="F24" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="G24" s="40"/>
-    </row>
-    <row r="25" ht="16.5" spans="6:7">
-      <c r="F25" s="42" t="s">
+      <c r="G24" s="34"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.5">
+      <c r="F25" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="G25" s="40"/>
-    </row>
-    <row r="26" ht="16.5" spans="6:7">
-      <c r="F26" s="43"/>
-      <c r="G26" s="44"/>
-    </row>
-    <row r="27" ht="16.5" spans="6:7">
-      <c r="F27" s="43"/>
-      <c r="G27" s="40"/>
-    </row>
-    <row r="28" ht="16.5" spans="7:7">
-      <c r="G28" s="40"/>
-    </row>
-    <row r="29" ht="16.5" spans="7:7">
-      <c r="G29" s="40"/>
-    </row>
-    <row r="30" ht="16.5" spans="7:7">
-      <c r="G30" s="40"/>
-    </row>
-    <row r="31" ht="16.5" spans="7:7">
-      <c r="G31" s="40"/>
-    </row>
-    <row r="32" ht="18" spans="7:7">
-      <c r="G32" s="45"/>
+      <c r="G25" s="34"/>
+    </row>
+    <row r="26" spans="1:7" ht="16.5">
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.5">
+      <c r="F27" s="37"/>
+      <c r="G27" s="34"/>
+    </row>
+    <row r="28" spans="1:7" ht="16.5">
+      <c r="G28" s="34"/>
+    </row>
+    <row r="29" spans="1:7" ht="16.5">
+      <c r="G29" s="34"/>
+    </row>
+    <row r="30" spans="1:7" ht="16.5">
+      <c r="G30" s="34"/>
+    </row>
+    <row r="31" spans="1:7" ht="16.5">
+      <c r="G31" s="34"/>
+    </row>
+    <row r="32" spans="1:7" ht="18">
+      <c r="G32" s="39"/>
     </row>
     <row r="33" spans="7:7">
-      <c r="G33" s="46"/>
+      <c r="G33" s="40"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G25">
@@ -5390,7 +4778,7 @@
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A19"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>